--- a/.templates/Config/DispatcherConfig.xlsx
+++ b/.templates/Config/DispatcherConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yash.brahmbhatt\Documents\UiPath\Yash.Framework\Data\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yash.brahmbhatt\Documents\UiPath\Yash.Framework\.templates\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F9C859-B31A-4C84-911E-53BD07AB374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35BA4D9-184D-4D5F-806A-2ADAC17CEF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="980" windowWidth="17810" windowHeight="10430" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="1050" windowWidth="17810" windowHeight="10430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,105 @@
   </si>
   <si>
     <t>Bucket</t>
+  </si>
+  <si>
+    <t>SysEx_Subject</t>
+  </si>
+  <si>
+    <t>SysEx_Body</t>
+  </si>
+  <si>
+    <t>Data\Templates\SysEx_Subject.txt</t>
+  </si>
+  <si>
+    <t>Data\Templates\SysEx_Body.html</t>
+  </si>
+  <si>
+    <t>SysEx_To</t>
+  </si>
+  <si>
+    <t>SysEx_CC</t>
+  </si>
+  <si>
+    <t>QueueName</t>
+  </si>
+  <si>
+    <t>QueueFolder</t>
+  </si>
+  <si>
+    <t>ProcessName</t>
+  </si>
+  <si>
+    <t>Dispatcher</t>
+  </si>
+  <si>
+    <t>The name of the process to be used for logging and reporting purposes.</t>
+  </si>
+  <si>
+    <t>The name of the queue to add items to.</t>
+  </si>
+  <si>
+    <t>The folder of the queue to add items to.</t>
+  </si>
+  <si>
+    <t>CredentialName_Email</t>
+  </si>
+  <si>
+    <t>CredentialFolder_Email</t>
+  </si>
+  <si>
+    <t>The name of the credential used to send emails from the SMTP server.</t>
+  </si>
+  <si>
+    <t>The folder of the credentuals used to send emails from the SMTP server.</t>
+  </si>
+  <si>
+    <t>Who to send the email to in cases of system exceptions. Use ';' or ',' for multiple.</t>
+  </si>
+  <si>
+    <t>Who to CC the email to in cases of system exceptions. Use ';' or ',' for multiple.</t>
+  </si>
+  <si>
+    <t>SMTP_Port</t>
+  </si>
+  <si>
+    <t>SMTP_Server</t>
+  </si>
+  <si>
+    <t>logM_Start</t>
+  </si>
+  <si>
+    <t>logM_Complete</t>
+  </si>
+  <si>
+    <t>Dispatched {0} items successfully.</t>
+  </si>
+  <si>
+    <t>Starting dispatching.</t>
+  </si>
+  <si>
+    <t>Log message when starting dispatching.</t>
+  </si>
+  <si>
+    <t>Log message when completed dispatching.</t>
+  </si>
+  <si>
+    <t>The port of the SMTP server.</t>
+  </si>
+  <si>
+    <t>The URL of the SMTP server.</t>
+  </si>
+  <si>
+    <t>The subject to send out in cases of any system exception.</t>
+  </si>
+  <si>
+    <t>The body to send out in cases of any system exception.</t>
+  </si>
+  <si>
+    <t>Folder_ExScreenshots</t>
+  </si>
+  <si>
+    <t>The folder to save the exception screenshots of the process.</t>
   </si>
 </sst>
 </file>
@@ -363,15 +462,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -383,6 +484,57 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -392,13 +544,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEE2D44-1DE8-4CA7-A83A-1ADEC7B423F2}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -409,6 +565,28 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -418,13 +596,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59017D05-C146-4F94-B0C7-FE1042A65B41}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -438,6 +619,38 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -447,14 +660,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2CEDF8-DEA9-4AFE-9762-F2C5CB64408E}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -477,6 +692,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
